--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1543302.837391955</v>
+        <v>-1545682.508593981</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836233</v>
+        <v>6654055.582836238</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>220.760163471523</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>153.1420810005585</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>306.822576358416</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>150.7630112952893</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -859,31 +859,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>139.8939792152981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>83.84709996450599</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>311.6107319723961</v>
       </c>
     </row>
     <row r="6">
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>95.29787616176787</v>
+        <v>99.660750746876</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>129.8110638510811</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>354.8384050832235</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>224.9913792784364</v>
+        <v>169.0167291702126</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>208.4393740287939</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>133.2205257453342</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520932</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>66.23125412673338</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>15.07437110675895</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>113.6276272496467</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>64.395540960622</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>89.51335652177904</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2530,19 +2530,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>45.55987108755927</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>170.7964349126489</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>63.13355668550177</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433866</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572849</v>
       </c>
       <c r="I31" t="n">
-        <v>49.3772837912466</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T34" t="n">
         <v>172.5738126575766</v>
@@ -3430,19 +3430,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3667,16 +3667,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
         <v>49.37728379124554</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C43" t="n">
         <v>120.2716844800353</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U43" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X43" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797668</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433876</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7798782957283</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124558</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>979.5885935818919</v>
+        <v>1472.467655954674</v>
       </c>
       <c r="C2" t="n">
-        <v>756.5985294692424</v>
+        <v>1472.467655954674</v>
       </c>
       <c r="D2" t="n">
-        <v>756.5985294692424</v>
+        <v>1114.201957347923</v>
       </c>
       <c r="E2" t="n">
-        <v>370.8102768709982</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>363.8647761217947</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2489.834531553474</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2489.834531553474</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2236.072746191565</v>
       </c>
       <c r="V2" t="n">
-        <v>2092.422847177208</v>
+        <v>2236.072746191565</v>
       </c>
       <c r="W2" t="n">
-        <v>1739.654191907093</v>
+        <v>2236.072746191565</v>
       </c>
       <c r="X2" t="n">
-        <v>1366.188433646014</v>
+        <v>1862.606987930486</v>
       </c>
       <c r="Y2" t="n">
-        <v>1366.188433646014</v>
+        <v>1472.467655954674</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4416,13 +4416,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4507,28 +4507,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782189</v>
+        <v>570.6683391887233</v>
       </c>
       <c r="T4" t="n">
-        <v>484.4236418782189</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U4" t="n">
-        <v>195.2500315327868</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>195.2500315327868</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>195.2500315327868</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>195.2500315327868</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
         <v>53.94298182036445</v>
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1328.4755035807</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="C5" t="n">
-        <v>959.5129866402885</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D5" t="n">
-        <v>959.5129866402885</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>2189.908715988822</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W5" t="n">
-        <v>2105.214675620634</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X5" t="n">
-        <v>2105.214675620634</v>
+        <v>1520.223993023726</v>
       </c>
       <c r="Y5" t="n">
-        <v>1715.075343644822</v>
+        <v>1205.465677900094</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204941</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245972</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>286.5323736931989</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>286.5323736931989</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>286.5323736931989</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="W7" t="n">
-        <v>286.5323736931989</v>
+        <v>154.6104068172089</v>
       </c>
       <c r="X7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1349.006596680237</v>
+        <v>1525.74665604171</v>
       </c>
       <c r="C8" t="n">
-        <v>1349.006596680237</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D8" t="n">
-        <v>990.740898073487</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2125.745768720171</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X8" t="n">
-        <v>2125.745768720171</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y8" t="n">
-        <v>1735.606436744359</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="9">
@@ -4890,13 +4890,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610024</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610024</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="W10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
@@ -5042,25 +5042,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>818.2062848686787</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1682.725100522033</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2216.257005193957</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N11" t="n">
-        <v>3196.009277420604</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750059</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5072,13 +5072,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5094,52 +5094,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973185</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161915</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549404</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494848</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763699</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390113</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193582</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320235</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142067</v>
@@ -5148,19 +5148,19 @@
         <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.56840828234</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
         <v>1138.808109517387</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>339.7766591279594</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C13" t="n">
-        <v>339.7766591279594</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>339.7766591279594</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>339.7766591279594</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5200,7 +5200,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5212,37 +5212,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104705</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862233</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384229</v>
       </c>
       <c r="V13" t="n">
-        <v>999.1036114208122</v>
+        <v>909.2731541783418</v>
       </c>
       <c r="W13" t="n">
-        <v>788.5587891695052</v>
+        <v>619.8559841413812</v>
       </c>
       <c r="X13" t="n">
-        <v>560.5692382714878</v>
+        <v>485.2897965198315</v>
       </c>
       <c r="Y13" t="n">
-        <v>339.7766591279594</v>
+        <v>264.4972173763014</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
@@ -5261,7 +5261,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
         <v>850.213983755162</v>
@@ -5276,52 +5276,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L14" t="n">
-        <v>1898.858917622688</v>
+        <v>1460.488316778687</v>
       </c>
       <c r="M14" t="n">
-        <v>2432.390822294613</v>
+        <v>2439.038619608516</v>
       </c>
       <c r="N14" t="n">
-        <v>2979.169639353395</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>460.4910241367934</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>460.4910241367934</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>310.3743847244576</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>162.4612911420645</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>162.4612911420645</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5473,13 +5473,13 @@
         <v>909.2731541783409</v>
       </c>
       <c r="W16" t="n">
-        <v>909.2731541783409</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X16" t="n">
-        <v>681.2836032803235</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y16" t="n">
-        <v>460.4910241367934</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>818.2062848686776</v>
       </c>
       <c r="L17" t="n">
-        <v>1971.087962216427</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M17" t="n">
-        <v>2504.619866888352</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N17" t="n">
         <v>3196.009277420604</v>
@@ -5546,19 +5546,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5568,13 +5568,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E18" t="n">
         <v>487.9678785494859</v>
@@ -5583,7 +5583,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>805.5092287479694</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C19" t="n">
-        <v>805.5092287479694</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D19" t="n">
-        <v>655.3925893356336</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1941.116828623129</v>
       </c>
       <c r="S19" t="n">
-        <v>1866.513008862232</v>
+        <v>1749.430944449955</v>
       </c>
       <c r="T19" t="n">
-        <v>1866.513008862232</v>
+        <v>1527.664329019482</v>
       </c>
       <c r="U19" t="n">
-        <v>1577.410141987875</v>
+        <v>1238.561462145125</v>
       </c>
       <c r="V19" t="n">
-        <v>1322.725653781988</v>
+        <v>983.8769739392383</v>
       </c>
       <c r="W19" t="n">
-        <v>1207.950272721739</v>
+        <v>694.4598039022776</v>
       </c>
       <c r="X19" t="n">
-        <v>1207.950272721739</v>
+        <v>466.4702530042603</v>
       </c>
       <c r="Y19" t="n">
-        <v>987.1576935782091</v>
+        <v>245.6776738607302</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
@@ -5750,25 +5750,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L20" t="n">
-        <v>1069.293752345675</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M20" t="n">
-        <v>2047.844055175504</v>
+        <v>1941.005908766398</v>
       </c>
       <c r="N20" t="n">
-        <v>2812.369300656583</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O20" t="n">
-        <v>3692.333950986038</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P20" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
         <v>4653.975400188666</v>
@@ -5829,13 +5829,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>724.8986285230101</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>555.9624455951032</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>405.8458061827674</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>257.9327126003743</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>257.9327126003743</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1644.746393431758</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U22" t="n">
-        <v>1644.746393431758</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>1644.746393431758</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>1355.329223394797</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>1127.33967249678</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>906.5470933532498</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5978,37 +5978,37 @@
         <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972665</v>
       </c>
       <c r="L23" t="n">
-        <v>1390.197710791128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2274.668463554307</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N23" t="n">
-        <v>3254.420735780953</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O23" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468566</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
@@ -6069,37 +6069,37 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
         <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>508.7128420558663</v>
+        <v>795.9349770789279</v>
       </c>
       <c r="C25" t="n">
-        <v>339.7766591279594</v>
+        <v>626.998794151021</v>
       </c>
       <c r="D25" t="n">
-        <v>339.7766591279594</v>
+        <v>626.998794151021</v>
       </c>
       <c r="E25" t="n">
-        <v>339.7766591279594</v>
+        <v>479.0857005686279</v>
       </c>
       <c r="F25" t="n">
-        <v>192.8867116300491</v>
+        <v>332.1957530707175</v>
       </c>
       <c r="G25" t="n">
-        <v>192.8867116300491</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6148,16 +6148,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O25" t="n">
         <v>1646.12566951853</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="V25" t="n">
-        <v>1253.788099626699</v>
+        <v>1198.376021052698</v>
       </c>
       <c r="W25" t="n">
-        <v>964.3709295897388</v>
+        <v>1198.376021052698</v>
       </c>
       <c r="X25" t="n">
-        <v>736.3813786917215</v>
+        <v>1198.376021052698</v>
       </c>
       <c r="Y25" t="n">
-        <v>690.361306886106</v>
+        <v>977.5834419091676</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>845.0839474760701</v>
+        <v>1002.806306216375</v>
       </c>
       <c r="L26" t="n">
-        <v>1296.118160724479</v>
+        <v>1453.840519464783</v>
       </c>
       <c r="M26" t="n">
-        <v>2274.668463554307</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N26" t="n">
-        <v>3254.420735780954</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O26" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6300,16 +6300,16 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>509.735988140349</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C28" t="n">
-        <v>340.7998052124422</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D28" t="n">
-        <v>340.7998052124422</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6406,28 +6406,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1674.827124689058</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1385.724257814702</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1131.039769608815</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>1131.039769608815</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X28" t="n">
-        <v>903.0502187107973</v>
+        <v>645.9151720045573</v>
       </c>
       <c r="Y28" t="n">
-        <v>682.2576395672671</v>
+        <v>425.1225928610272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
         <v>1646.988141143014</v>
@@ -6449,7 +6449,7 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
         <v>435.1415336001585</v>
@@ -6458,55 +6458,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>818.2062848686776</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1682.725100522032</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2216.257005193957</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420604</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6564,16 +6564,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>788.5151678215063</v>
+        <v>788.5151678215057</v>
       </c>
       <c r="C31" t="n">
-        <v>667.0286178416727</v>
+        <v>667.028617841672</v>
       </c>
       <c r="D31" t="n">
-        <v>564.3616113774103</v>
+        <v>564.3616113774096</v>
       </c>
       <c r="E31" t="n">
-        <v>463.8981507430905</v>
+        <v>463.8981507430898</v>
       </c>
       <c r="F31" t="n">
-        <v>364.4578361932535</v>
+        <v>364.4578361932527</v>
       </c>
       <c r="G31" t="n">
-        <v>244.2046325160457</v>
+        <v>244.204632516045</v>
       </c>
       <c r="H31" t="n">
-        <v>145.4370786819769</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>187.1890521477366</v>
       </c>
       <c r="K31" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L31" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M31" t="n">
         <v>1191.409234901878</v>
@@ -6640,13 +6640,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q31" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R31" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S31" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T31" t="n">
         <v>1967.452490122057</v>
@@ -6655,16 +6655,16 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V31" t="n">
-        <v>1518.564400937961</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W31" t="n">
-        <v>1276.596863849074</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X31" t="n">
         <v>1096.056945899129</v>
       </c>
       <c r="Y31" t="n">
-        <v>922.7139997036727</v>
+        <v>922.713999703672</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6704,22 +6704,22 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1069.293752345675</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2006.065164440651</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N32" t="n">
-        <v>2985.817436667298</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O32" t="n">
-        <v>3865.782086996753</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6731,19 +6731,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C34" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D34" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774094</v>
       </c>
       <c r="E34" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430896</v>
       </c>
       <c r="F34" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932525</v>
       </c>
       <c r="G34" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160448</v>
       </c>
       <c r="H34" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6859,10 +6859,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K34" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490194</v>
       </c>
       <c r="L34" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499222</v>
       </c>
       <c r="M34" t="n">
         <v>1191.409234901878</v>
@@ -6889,7 +6889,7 @@
         <v>1967.452490122057</v>
       </c>
       <c r="U34" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V34" t="n">
         <v>1518.56440093796</v>
@@ -6901,7 +6901,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y34" t="n">
-        <v>922.7139997036717</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="35">
@@ -6935,22 +6935,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L35" t="n">
-        <v>1650.184003770974</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M35" t="n">
-        <v>2274.668463554307</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N35" t="n">
-        <v>3254.420735780954</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O35" t="n">
-        <v>3757.393206660291</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
         <v>4470.748294107237</v>
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089896</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468573</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
@@ -7020,7 +7020,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7035,7 +7035,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7044,7 +7044,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
         <v>2043.809373447819</v>
@@ -7053,13 +7053,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C37" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D37" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E37" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F37" t="n">
         <v>364.4578361932524</v>
@@ -7093,13 +7093,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K37" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L37" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M37" t="n">
         <v>1191.409234901878</v>
@@ -7114,13 +7114,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q37" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R37" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S37" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T37" t="n">
         <v>1967.452490122057</v>
@@ -7132,13 +7132,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W37" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X37" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y37" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7172,52 +7172,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1971.087962216427</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M38" t="n">
-        <v>2949.638265046255</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N38" t="n">
-        <v>3496.417082105037</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7251,13 +7251,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7269,22 +7269,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430896</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160445</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7363,7 +7363,7 @@
         <v>1967.452490122057</v>
       </c>
       <c r="U40" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V40" t="n">
         <v>1518.56440093796</v>
@@ -7391,55 +7391,55 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551636</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972666</v>
       </c>
       <c r="L41" t="n">
-        <v>1971.087962216427</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2649.230460361821</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N41" t="n">
-        <v>3196.009277420604</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U41" t="n">
         <v>4208.252829604875</v>
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468569</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390113</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7509,7 +7509,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7518,7 +7518,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U42" t="n">
         <v>2043.809373447819</v>
@@ -7527,13 +7527,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215055</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416719</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774094</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430897</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932525</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160448</v>
       </c>
       <c r="H43" t="n">
         <v>145.4370786819758</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J43" t="n">
-        <v>187.1890521477366</v>
+        <v>187.1890521477365</v>
       </c>
       <c r="K43" t="n">
         <v>437.6816203490196</v>
@@ -7597,7 +7597,7 @@
         <v>2141.769472604457</v>
       </c>
       <c r="T43" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U43" t="n">
         <v>1725.799256195774</v>
@@ -7606,13 +7606,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036716</v>
+        <v>922.713999703672</v>
       </c>
     </row>
     <row r="44">
@@ -7625,73 +7625,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277731</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L44" t="n">
-        <v>1971.087962216428</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M44" t="n">
-        <v>2949.638265046256</v>
+        <v>1770.231306037953</v>
       </c>
       <c r="N44" t="n">
-        <v>3496.417082105039</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O44" t="n">
-        <v>3999.389552984377</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
@@ -7725,16 +7725,16 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390103</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193577</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320232</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
         <v>1715.000032008794</v>
@@ -7749,10 +7749,10 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215059</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416721</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774096</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430897</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932526</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G46" t="n">
-        <v>244.2046325160448</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H46" t="n">
         <v>145.4370786819758</v>
@@ -7804,13 +7804,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7825,10 +7825,10 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R46" t="n">
-        <v>2286.005723829559</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S46" t="n">
         <v>2141.769472604458</v>
@@ -7840,7 +7840,7 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V46" t="n">
-        <v>1518.564400937961</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W46" t="n">
         <v>1276.596863849073</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036724</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8307,10 +8307,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8690,28 +8690,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>201.9664098701136</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>304.7351805999701</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>344.7025836476838</v>
+        <v>71.00061210864527</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,10 +9161,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>201.9664098701124</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>146.0713065388582</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9407,19 +9407,19 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>172.4995987156013</v>
       </c>
       <c r="N20" t="n">
-        <v>219.9458872952495</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9638,16 +9638,16 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>354.4836849406604</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>420.2833968404701</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9656,10 +9656,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>229.1155640189937</v>
+        <v>219.3344627260154</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9893,10 +9893,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>32.86979469803862</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>420.2833968404713</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10352,25 +10352,25 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>407.3126337606582</v>
+        <v>420.2833968404722</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,25 +10583,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>295.4822118493981</v>
       </c>
       <c r="M35" t="n">
-        <v>91.87126778930178</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>388.4310778980899</v>
       </c>
       <c r="O38" t="n">
-        <v>77.35795430877238</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>146.0713065388582</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>292.5685715191215</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,28 +11297,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>288.0478149561031</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>77.3579543087684</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22547,13 +22547,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>144.5127282994846</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>228.7882890717033</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22708,25 +22708,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,19 +22750,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>78.69067413679667</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,7 +23425,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -23434,7 +23434,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>78.08362430779709</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>92.48912964370294</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>99.79455413229485</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>73.85778156328838</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>172.8953710869443</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>101.6302672984062</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>76.51245173724918</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,19 +24418,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>173.0247822645355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>9.035545269288406</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24619,7 +24619,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>162.5760987035354</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>111151.7323348872</v>
+        <v>111151.7323348871</v>
       </c>
       <c r="C2" t="n">
         <v>123156.2654796425</v>
       </c>
       <c r="D2" t="n">
-        <v>123156.2654796424</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="E2" t="n">
         <v>119124.536066095</v>
@@ -26329,13 +26329,13 @@
         <v>119124.536066095</v>
       </c>
       <c r="H2" t="n">
+        <v>119124.536066095</v>
+      </c>
+      <c r="I2" t="n">
+        <v>119124.536066095</v>
+      </c>
+      <c r="J2" t="n">
         <v>119124.5360660949</v>
-      </c>
-      <c r="I2" t="n">
-        <v>119124.5360660949</v>
-      </c>
-      <c r="J2" t="n">
-        <v>119124.536066095</v>
       </c>
       <c r="K2" t="n">
         <v>123156.2654796423</v>
@@ -26344,16 +26344,16 @@
         <v>123156.2654796424</v>
       </c>
       <c r="M2" t="n">
-        <v>123156.2654796423</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="N2" t="n">
         <v>123156.2654796424</v>
       </c>
       <c r="O2" t="n">
+        <v>123156.2654796425</v>
+      </c>
+      <c r="P2" t="n">
         <v>123156.2654796424</v>
-      </c>
-      <c r="P2" t="n">
-        <v>123156.2654796423</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,22 +26390,22 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
+        <v>37580.10929487403</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>129642.3148389448</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>37580.10929487406</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>129642.3148389447</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>37580.10929487401</v>
       </c>
     </row>
     <row r="4">
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137670.0716798392</v>
+        <v>137670.0716798393</v>
       </c>
       <c r="C4" t="n">
+        <v>183348.686857128</v>
+      </c>
+      <c r="D4" t="n">
         <v>183348.6868571279</v>
       </c>
-      <c r="D4" t="n">
-        <v>183348.686857128</v>
-      </c>
       <c r="E4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918989</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="G4" t="n">
         <v>18148.49231918994</v>
@@ -26436,16 +26436,16 @@
         <v>18148.49231918991</v>
       </c>
       <c r="I4" t="n">
+        <v>18148.49231918992</v>
+      </c>
+      <c r="J4" t="n">
         <v>18148.49231918993</v>
       </c>
-      <c r="J4" t="n">
-        <v>18148.49231918994</v>
-      </c>
       <c r="K4" t="n">
+        <v>33605.65329740898</v>
+      </c>
+      <c r="L4" t="n">
         <v>33605.65329740899</v>
-      </c>
-      <c r="L4" t="n">
-        <v>33605.653297409</v>
       </c>
       <c r="M4" t="n">
         <v>33605.65329740899</v>
@@ -26454,10 +26454,10 @@
         <v>33605.65329740899</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.65329740897</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740894</v>
+        <v>33605.65329740898</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371366</v>
@@ -26491,7 +26491,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
         <v>100332.6710141021</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-699345.296622906</v>
+        <v>-699545.3721753185</v>
       </c>
       <c r="C6" t="n">
+        <v>-143051.499440895</v>
+      </c>
+      <c r="D6" t="n">
         <v>-143051.4994408949</v>
       </c>
-      <c r="D6" t="n">
-        <v>-143051.499440895</v>
-      </c>
       <c r="E6" t="n">
-        <v>-722784.8885002151</v>
+        <v>-722852.0839904411</v>
       </c>
       <c r="F6" t="n">
-        <v>4592.52549319141</v>
+        <v>4525.330002965559</v>
       </c>
       <c r="G6" t="n">
-        <v>4592.525493191351</v>
+        <v>4525.330002965603</v>
       </c>
       <c r="H6" t="n">
-        <v>4592.525493191366</v>
+        <v>4525.330002965588</v>
       </c>
       <c r="I6" t="n">
-        <v>4592.525493191351</v>
+        <v>4525.330002965632</v>
       </c>
       <c r="J6" t="n">
-        <v>-171830.6936994016</v>
+        <v>-171897.8891896274</v>
       </c>
       <c r="K6" t="n">
-        <v>-48362.16812674286</v>
+        <v>-48362.16812674276</v>
       </c>
       <c r="L6" t="n">
-        <v>-10782.05883186872</v>
+        <v>-10782.05883186869</v>
       </c>
       <c r="M6" t="n">
         <v>-140424.3736708135</v>
       </c>
       <c r="N6" t="n">
-        <v>-10782.05883186874</v>
+        <v>-10782.05883186869</v>
       </c>
       <c r="O6" t="n">
-        <v>-10782.05883186864</v>
+        <v>-10782.05883186862</v>
       </c>
       <c r="P6" t="n">
-        <v>-48362.16812674273</v>
+        <v>-48362.16812674276</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
+        <v>46.97513661859254</v>
+      </c>
+      <c r="N2" t="n">
+        <v>46.97513661859256</v>
+      </c>
+      <c r="O2" t="n">
+        <v>46.97513661859252</v>
+      </c>
+      <c r="P2" t="n">
         <v>46.97513661859255</v>
-      </c>
-      <c r="N2" t="n">
-        <v>46.97513661859257</v>
-      </c>
-      <c r="O2" t="n">
-        <v>46.97513661859255</v>
-      </c>
-      <c r="P2" t="n">
-        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="3">
@@ -26756,7 +26756,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26774,10 +26774,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
+        <v>1089.776700593299</v>
+      </c>
+      <c r="P3" t="n">
         <v>1089.776700593298</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="3">
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>106.961593662379</v>
-      </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>23.65270151368227</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,25 +27540,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27579,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>56.2595003824851</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>265.393868752907</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>74.6272066836575</v>
       </c>
     </row>
     <row r="6">
@@ -27792,7 +27792,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -27816,28 +27816,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>130.4117792272693</v>
+        <v>126.0489046421611</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>235.4618279199265</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>27.09196498903827</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -28059,7 +28059,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>61.53161905815463</v>
+        <v>117.5062691663784</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28290,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -28314,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.602510716717613e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="41">
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>-5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
   </sheetData>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H23" t="n">
         <v>44.86703772844668</v>
@@ -32707,40 +32707,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T23" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32859,43 +32859,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L25" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -33278,7 +33278,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
@@ -33500,7 +33500,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H41" t="n">
         <v>44.86703772844668</v>
@@ -34129,40 +34129,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T41" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34281,43 +34281,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L43" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026424</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,43 +34518,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34784,7 +34784,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35027,10 +35027,10 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35258,7 +35258,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35267,7 +35267,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>539.157696425514</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>843.6562964301969</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789498</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>800.2926980400159</v>
+        <v>526.5907265009774</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>539.1576964255129</v>
       </c>
       <c r="L17" t="n">
         <v>873.2513289427826</v>
@@ -35893,7 +35893,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>698.3731419517696</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
         <v>888.8531821509645</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554005</v>
@@ -36127,19 +36127,19 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>711.4207145458281</v>
       </c>
       <c r="N20" t="n">
-        <v>772.2477227081609</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M23" t="n">
-        <v>893.4048007708872</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>972.5852322533816</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>566.3068505743942</v>
+        <v>556.5257492814159</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923322</v>
@@ -36604,7 +36604,7 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
         <v>508.0530008882191</v>
@@ -36613,10 +36613,10 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>370.0610812534391</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>959.204512670698</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36926,7 +36926,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37072,25 +37072,25 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>946.2337495908849</v>
+        <v>959.2045126706989</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
         <v>366.7325087887907</v>
@@ -37236,7 +37236,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37303,25 +37303,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>751.0723262417303</v>
       </c>
       <c r="M35" t="n">
-        <v>630.7923836195286</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
         <v>250.7943048037195</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
@@ -37473,13 +37473,13 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3693751564862</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>940.7329133110014</v>
       </c>
       <c r="O38" t="n">
-        <v>585.4109551969914</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37707,16 +37707,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M41" t="n">
-        <v>684.9924223690849</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>844.870406932033</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -37938,7 +37938,7 @@
         <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L43" t="n">
         <v>366.7325087887907</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407865</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265655</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427828</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230595</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129117</v>
+        <v>840.3496503690146</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882195</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>476.1199405281405</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037197</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222489</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597567</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
@@ -38187,7 +38187,7 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
         <v>281.932207763703</v>
